--- a/studies/labor study_A/fragebogen_items_002.xlsx
+++ b/studies/labor study_A/fragebogen_items_002.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147337E6-2CDF-4440-B082-F6FA39C721D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1045E093-EABE-4976-B93E-0D65CF89A2C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{8CF18335-A014-4D58-B979-FFCA93177016}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="148">
-  <si>
-    <t>itemid</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="215">
   <si>
     <t>itemfulltext</t>
   </si>
@@ -183,9 +180,6 @@
     <t>Konzipierung der Sequenz</t>
   </si>
   <si>
-    <t>scale: stimme nicht zu /stimme eher nicht zu / stimme eher zu / stimme zu / keine Angabe / freie Angabe</t>
-  </si>
-  <si>
     <t>km_mitbekommen</t>
   </si>
   <si>
@@ -469,6 +463,213 @@
   </si>
   <si>
     <t xml:space="preserve">Beim Unterrichten vor einer fiktiven Klasse habe ich mich so verhalten, wie ich es auch in der Schule/Universität tun würde. </t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>questionnaire</t>
+  </si>
+  <si>
+    <t>eyetracking</t>
+  </si>
+  <si>
+    <t>gaze relational index</t>
+  </si>
+  <si>
+    <t>proportion of time looking at students</t>
+  </si>
+  <si>
+    <t>form a proportion of the time that a participant has spent looking at any of the students</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>average amplitude during time talking</t>
+  </si>
+  <si>
+    <t>average amplitude overall</t>
+  </si>
+  <si>
+    <t>for all timewindows coded as "teacher speaking" calculate the average amplitude</t>
+  </si>
+  <si>
+    <t>did the teacher react to a disturbance</t>
+  </si>
+  <si>
+    <t>how long did it take the teacher to react</t>
+  </si>
+  <si>
+    <t>how did the teacher react</t>
+  </si>
+  <si>
+    <t>behavioralcoding</t>
+  </si>
+  <si>
+    <t>did the teacher see a disturbance</t>
+  </si>
+  <si>
+    <t>for every disturbance code if the teacher recognized it (1) or not (0)</t>
+  </si>
+  <si>
+    <t>for every disturbance code if the teacher reacted to it (1) or not (0)</t>
+  </si>
+  <si>
+    <t>take the absolute time in sec or frames (whatever works with boris) between the onset of the disturbance and the reaction</t>
+  </si>
+  <si>
+    <t>categorical variable classifying a reaction as verbal, nonverbal etc.</t>
+  </si>
+  <si>
+    <t>studentdisturbance_when</t>
+  </si>
+  <si>
+    <t>studentdisturbance_what</t>
+  </si>
+  <si>
+    <t>onset and offset of a disturbance phase</t>
+  </si>
+  <si>
+    <t>type of disturbance coded as "talking" "handy" etc</t>
+  </si>
+  <si>
+    <t>code on and offset of a every verbal turn and calculate the total duration per session</t>
+  </si>
+  <si>
+    <t>bc_talkstudentduration</t>
+  </si>
+  <si>
+    <t>bc_talkteacherduration</t>
+  </si>
+  <si>
+    <t>bc_talkstudentcountturns</t>
+  </si>
+  <si>
+    <t>bc_talkteachercountturns</t>
+  </si>
+  <si>
+    <t>how long did student talk</t>
+  </si>
+  <si>
+    <t>how long did teachertalk</t>
+  </si>
+  <si>
+    <t>how often did studenttalk</t>
+  </si>
+  <si>
+    <t>how often did teachertalk</t>
+  </si>
+  <si>
+    <t>bc_disdur</t>
+  </si>
+  <si>
+    <t>bc_diswhat</t>
+  </si>
+  <si>
+    <t>amp_overall</t>
+  </si>
+  <si>
+    <t>amp_talkingphases</t>
+  </si>
+  <si>
+    <t>for each teacher calculate the overall average amplitude of the session</t>
+  </si>
+  <si>
+    <t>automatic_movement</t>
+  </si>
+  <si>
+    <t>gesture</t>
+  </si>
+  <si>
+    <t>??? Some index of the amount of time they used their hands overall or while talking, analyse using openpose ???</t>
+  </si>
+  <si>
+    <t>visualize movement in the room</t>
+  </si>
+  <si>
+    <t>create indexof movement in the room</t>
+  </si>
+  <si>
+    <t>move_heat</t>
+  </si>
+  <si>
+    <t>move_average</t>
+  </si>
+  <si>
+    <t>??? Detect teacher position via marker and create an index of movement via variance in pixelchanges…???</t>
+  </si>
+  <si>
+    <t>??? Detect teacher position via marker and create a heatmap visualisation ???</t>
+  </si>
+  <si>
+    <t>event code</t>
+  </si>
+  <si>
+    <t>factor "talking" "handy" etc</t>
+  </si>
+  <si>
+    <t>count every verbal turn and count the number of turns a teacher had</t>
+  </si>
+  <si>
+    <t>count every verbal turn and count the number of turns the students had</t>
+  </si>
+  <si>
+    <t>1 yes, 0 no</t>
+  </si>
+  <si>
+    <t>calculate the distance between time onset disturbance and onset reaction…NOTE need to unambiuously connect the correct events --&gt; we need to code to what a teacher reacted</t>
+  </si>
+  <si>
+    <t>to what did the teacher react</t>
+  </si>
+  <si>
+    <t>??? to which disturbance did the teacher react, How do we code this</t>
+  </si>
+  <si>
+    <t>scale_code_typeofvalue</t>
+  </si>
+  <si>
+    <t>4-point-lickert-scale with opt-out-option</t>
+  </si>
+  <si>
+    <t>factor "verbal" "nonverbal" "whatever"</t>
+  </si>
+  <si>
+    <t>gaze_propstudent</t>
+  </si>
+  <si>
+    <t>gaze_gri</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>form a ratio of fixations by ??? What was that???</t>
+  </si>
+  <si>
+    <t>bc_disdetect</t>
+  </si>
+  <si>
+    <t>bc_disreact</t>
+  </si>
+  <si>
+    <t>bc_disreacttarget</t>
+  </si>
+  <si>
+    <t>bc_disreacttype</t>
+  </si>
+  <si>
+    <t>bc_disreacttime</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>count code by recoding of event code into number of events</t>
   </si>
 </sst>
 </file>
@@ -866,77 +1067,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F403B895-D566-4AA1-9A4C-99160648D197}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AF155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
+      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="3"/>
-    <col min="2" max="2" width="37.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="120.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="78.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.90625" style="3"/>
-    <col min="12" max="12" width="14.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.90625" style="3"/>
+    <col min="1" max="1" width="21" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="3"/>
+    <col min="3" max="3" width="46.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="120.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="78.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="10.85546875" style="3"/>
+    <col min="13" max="13" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -952,25 +1156,30 @@
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
-    </row>
-    <row r="2" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
+      <c r="AF1" s="2"/>
+    </row>
+    <row r="2" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -995,25 +1204,30 @@
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
-    </row>
-    <row r="3" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
+      <c r="AF2" s="7"/>
+    </row>
+    <row r="3" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -1038,25 +1252,30 @@
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
-    </row>
-    <row r="4" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="AF3" s="7"/>
+    </row>
+    <row r="4" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="7">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1081,25 +1300,30 @@
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
-    </row>
-    <row r="5" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="AF4" s="7"/>
+    </row>
+    <row r="5" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1124,25 +1348,30 @@
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
-    </row>
-    <row r="6" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="AF5" s="4"/>
+    </row>
+    <row r="6" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1167,25 +1396,30 @@
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
-    </row>
-    <row r="7" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="AF6" s="4"/>
+    </row>
+    <row r="7" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1210,25 +1444,30 @@
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
-    </row>
-    <row r="8" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+      <c r="AF7" s="4"/>
+    </row>
+    <row r="8" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1253,25 +1492,30 @@
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
-    </row>
-    <row r="9" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
+      <c r="AF8" s="7"/>
+    </row>
+    <row r="9" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>3</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1296,25 +1540,30 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
-    </row>
-    <row r="10" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+      <c r="AF9" s="7"/>
+    </row>
+    <row r="10" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>3</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1339,25 +1588,30 @@
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
-    </row>
-    <row r="11" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="AF10" s="7"/>
+    </row>
+    <row r="11" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1382,25 +1636,30 @@
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
-    </row>
-    <row r="12" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="AF11" s="4"/>
+    </row>
+    <row r="12" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="4">
         <v>1</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1425,25 +1684,30 @@
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
-    </row>
-    <row r="13" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+      <c r="AF12" s="4"/>
+    </row>
+    <row r="13" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1468,25 +1732,30 @@
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
-    </row>
-    <row r="14" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
+      <c r="AF13" s="4"/>
+    </row>
+    <row r="14" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>3</v>
-      </c>
       <c r="C14" s="7" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1511,25 +1780,30 @@
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
-    </row>
-    <row r="15" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
+      <c r="AF14" s="7"/>
+    </row>
+    <row r="15" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>3</v>
-      </c>
       <c r="C15" s="7" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1554,25 +1828,30 @@
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
-    </row>
-    <row r="16" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
+      <c r="AF15" s="7"/>
+    </row>
+    <row r="16" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>3</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1597,25 +1876,30 @@
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
-    </row>
-    <row r="17" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+      <c r="AF16" s="7"/>
+    </row>
+    <row r="17" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="C17" s="4" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1640,25 +1924,30 @@
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
-    </row>
-    <row r="18" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+      <c r="AF17" s="4"/>
+    </row>
+    <row r="18" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1683,25 +1972,30 @@
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
-    </row>
-    <row r="19" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+      <c r="AF18" s="4"/>
+    </row>
+    <row r="19" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1726,25 +2020,30 @@
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
-    </row>
-    <row r="20" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
+      <c r="AF19" s="4"/>
+    </row>
+    <row r="20" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="7">
         <v>2</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="C20" s="7" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1769,25 +2068,30 @@
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
-    </row>
-    <row r="21" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
+      <c r="AF20" s="7"/>
+    </row>
+    <row r="21" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="7">
         <v>2</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="C21" s="7" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -1812,25 +2116,30 @@
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
-    </row>
-    <row r="22" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
+      <c r="AF21" s="7"/>
+    </row>
+    <row r="22" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="7">
         <v>2</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="C22" s="7" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1855,25 +2164,30 @@
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
-    </row>
-    <row r="23" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+      <c r="AF22" s="7"/>
+    </row>
+    <row r="23" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1898,25 +2212,30 @@
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
-    </row>
-    <row r="24" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+      <c r="AF23" s="4"/>
+    </row>
+    <row r="24" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1941,25 +2260,30 @@
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
-    </row>
-    <row r="25" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
+      <c r="AF24" s="4"/>
+    </row>
+    <row r="25" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1984,25 +2308,30 @@
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
-    </row>
-    <row r="26" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
+      <c r="AF25" s="4"/>
+    </row>
+    <row r="26" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="7">
         <v>2</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="C26" s="7" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -2027,25 +2356,30 @@
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
-    </row>
-    <row r="27" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
+      <c r="AF26" s="7"/>
+    </row>
+    <row r="27" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="7">
         <v>2</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="C27" s="7" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -2070,25 +2404,30 @@
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
-    </row>
-    <row r="28" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
+      <c r="AF27" s="7"/>
+    </row>
+    <row r="28" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="7">
         <v>2</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="C28" s="7" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -2113,25 +2452,30 @@
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
-    </row>
-    <row r="29" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
+      <c r="AF28" s="7"/>
+    </row>
+    <row r="29" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="4">
         <v>2</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -2156,25 +2500,30 @@
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
-    </row>
-    <row r="30" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
+      <c r="AF29" s="4"/>
+    </row>
+    <row r="30" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="4">
         <v>2</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -2199,25 +2548,30 @@
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
-    </row>
-    <row r="31" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
+      <c r="AF30" s="4"/>
+    </row>
+    <row r="31" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="4">
         <v>2</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -2242,25 +2596,30 @@
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
-    </row>
-    <row r="32" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
+      <c r="AF31" s="4"/>
+    </row>
+    <row r="32" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="7">
         <v>2</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="C32" s="7" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -2285,25 +2644,30 @@
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
-    </row>
-    <row r="33" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
+      <c r="AF32" s="7"/>
+    </row>
+    <row r="33" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="7">
         <v>2</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="C33" s="7" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -2328,25 +2692,30 @@
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
-    </row>
-    <row r="34" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
+      <c r="AF33" s="7"/>
+    </row>
+    <row r="34" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="7">
         <v>2</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="C34" s="7" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -2371,25 +2740,30 @@
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
-    </row>
-    <row r="35" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
+      <c r="AF34" s="7"/>
+    </row>
+    <row r="35" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="4">
         <v>2</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="C35" s="4" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -2414,25 +2788,30 @@
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
-    </row>
-    <row r="36" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
+      <c r="AF35" s="4"/>
+    </row>
+    <row r="36" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="4">
         <v>2</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="C36" s="4" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -2457,25 +2836,30 @@
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
-    </row>
-    <row r="37" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
+      <c r="AF36" s="4"/>
+    </row>
+    <row r="37" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="4">
         <v>2</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="C37" s="4" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -2500,25 +2884,30 @@
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
-    </row>
-    <row r="38" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
+      <c r="AF37" s="4"/>
+    </row>
+    <row r="38" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="7">
         <v>2</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="C38" s="7" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -2543,25 +2932,30 @@
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
       <c r="AE38" s="7"/>
-    </row>
-    <row r="39" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
+      <c r="AF38" s="7"/>
+    </row>
+    <row r="39" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="7">
         <v>2</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="C39" s="7" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -2586,25 +2980,30 @@
       <c r="AC39" s="7"/>
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
-    </row>
-    <row r="40" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
+      <c r="AF39" s="7"/>
+    </row>
+    <row r="40" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="7">
         <v>2</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="C40" s="7" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -2629,25 +3028,30 @@
       <c r="AC40" s="7"/>
       <c r="AD40" s="7"/>
       <c r="AE40" s="7"/>
-    </row>
-    <row r="41" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
+      <c r="AF40" s="7"/>
+    </row>
+    <row r="41" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="4">
         <v>3</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="C41" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -2672,25 +3076,30 @@
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
-    </row>
-    <row r="42" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
+      <c r="AF41" s="4"/>
+    </row>
+    <row r="42" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="4">
         <v>3</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="C42" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -2715,25 +3124,30 @@
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
-    </row>
-    <row r="43" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
+      <c r="AF42" s="4"/>
+    </row>
+    <row r="43" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="4">
         <v>3</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="C43" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -2758,25 +3172,30 @@
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
-    </row>
-    <row r="44" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="7">
+      <c r="AF43" s="4"/>
+    </row>
+    <row r="44" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="7">
         <v>3</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="C44" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -2801,25 +3220,30 @@
       <c r="AC44" s="7"/>
       <c r="AD44" s="7"/>
       <c r="AE44" s="7"/>
-    </row>
-    <row r="45" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="7">
+      <c r="AF44" s="7"/>
+    </row>
+    <row r="45" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="7">
         <v>3</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="C45" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -2844,25 +3268,30 @@
       <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
       <c r="AE45" s="7"/>
-    </row>
-    <row r="46" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="7">
+      <c r="AF45" s="7"/>
+    </row>
+    <row r="46" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="7">
         <v>3</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="C46" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -2887,25 +3316,30 @@
       <c r="AC46" s="7"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7"/>
-    </row>
-    <row r="47" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
+      <c r="AF46" s="7"/>
+    </row>
+    <row r="47" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="4">
         <v>3</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="C47" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -2930,25 +3364,30 @@
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
-    </row>
-    <row r="48" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="4">
+      <c r="AF47" s="4"/>
+    </row>
+    <row r="48" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="4">
         <v>3</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="C48" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -2973,25 +3412,30 @@
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
-    </row>
-    <row r="49" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4">
+      <c r="AF48" s="4"/>
+    </row>
+    <row r="49" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="4">
         <v>3</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="C49" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -3016,25 +3460,30 @@
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
-    </row>
-    <row r="50" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="7">
+      <c r="AF49" s="4"/>
+    </row>
+    <row r="50" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="7">
         <v>4</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C50" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -3059,25 +3508,30 @@
       <c r="AC50" s="7"/>
       <c r="AD50" s="7"/>
       <c r="AE50" s="7"/>
-    </row>
-    <row r="51" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="7">
+      <c r="AF50" s="7"/>
+    </row>
+    <row r="51" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="7">
         <v>4</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C51" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -3102,25 +3556,30 @@
       <c r="AC51" s="7"/>
       <c r="AD51" s="7"/>
       <c r="AE51" s="7"/>
-    </row>
-    <row r="52" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="7">
+      <c r="AF51" s="7"/>
+    </row>
+    <row r="52" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="7">
         <v>4</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C52" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -3145,25 +3604,30 @@
       <c r="AC52" s="7"/>
       <c r="AD52" s="7"/>
       <c r="AE52" s="7"/>
-    </row>
-    <row r="53" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="4">
+      <c r="AF52" s="7"/>
+    </row>
+    <row r="53" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="4">
         <v>4</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="C53" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -3188,25 +3652,30 @@
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
-    </row>
-    <row r="54" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="4">
+      <c r="AF53" s="4"/>
+    </row>
+    <row r="54" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="4">
         <v>4</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="C54" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -3231,25 +3700,30 @@
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
-    </row>
-    <row r="55" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4">
+      <c r="AF54" s="4"/>
+    </row>
+    <row r="55" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" s="4">
         <v>4</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="C55" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="E55" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -3274,25 +3748,30 @@
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
       <c r="AE55" s="4"/>
-    </row>
-    <row r="56" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="7">
+      <c r="AF55" s="4"/>
+    </row>
+    <row r="56" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="7">
         <v>4</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="C56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="G56" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -3317,25 +3796,30 @@
       <c r="AC56" s="7"/>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7"/>
-    </row>
-    <row r="57" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="7">
+      <c r="AF56" s="7"/>
+    </row>
+    <row r="57" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="7">
         <v>4</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C57" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -3360,25 +3844,30 @@
       <c r="AC57" s="7"/>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
-    </row>
-    <row r="58" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="7">
+      <c r="AF57" s="7"/>
+    </row>
+    <row r="58" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="7">
         <v>4</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C58" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -3403,25 +3892,30 @@
       <c r="AC58" s="7"/>
       <c r="AD58" s="7"/>
       <c r="AE58" s="7"/>
-    </row>
-    <row r="59" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="4">
+      <c r="AF58" s="7"/>
+    </row>
+    <row r="59" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="4">
         <v>4</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="C59" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -3446,25 +3940,30 @@
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
       <c r="AE59" s="4"/>
-    </row>
-    <row r="60" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="4">
+      <c r="AF59" s="4"/>
+    </row>
+    <row r="60" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="4">
         <v>4</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="C60" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -3489,25 +3988,30 @@
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
       <c r="AE60" s="4"/>
-    </row>
-    <row r="61" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="4">
+      <c r="AF60" s="4"/>
+    </row>
+    <row r="61" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="4">
         <v>4</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="C61" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -3532,25 +4036,30 @@
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
       <c r="AE61" s="4"/>
-    </row>
-    <row r="62" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="7">
+      <c r="AF61" s="4"/>
+    </row>
+    <row r="62" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="7">
         <v>4</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C62" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -3575,25 +4084,30 @@
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
       <c r="AE62" s="7"/>
-    </row>
-    <row r="63" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="7">
+      <c r="AF62" s="7"/>
+    </row>
+    <row r="63" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="7">
         <v>4</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C63" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -3618,25 +4132,30 @@
       <c r="AC63" s="7"/>
       <c r="AD63" s="7"/>
       <c r="AE63" s="7"/>
-    </row>
-    <row r="64" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="7">
+      <c r="AF63" s="7"/>
+    </row>
+    <row r="64" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="7">
         <v>4</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C64" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
@@ -3661,25 +4180,30 @@
       <c r="AC64" s="7"/>
       <c r="AD64" s="7"/>
       <c r="AE64" s="7"/>
-    </row>
-    <row r="65" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="4">
+      <c r="AF64" s="7"/>
+    </row>
+    <row r="65" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="4">
         <v>4</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="C65" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -3704,25 +4228,30 @@
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
-    </row>
-    <row r="66" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="4">
+      <c r="AF65" s="4"/>
+    </row>
+    <row r="66" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="4">
         <v>4</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="C66" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -3747,25 +4276,30 @@
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
-    </row>
-    <row r="67" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="4">
+      <c r="AF66" s="4"/>
+    </row>
+    <row r="67" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="4">
         <v>4</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="C67" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -3790,25 +4324,30 @@
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
       <c r="AE67" s="4"/>
-    </row>
-    <row r="68" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="7">
+      <c r="AF67" s="4"/>
+    </row>
+    <row r="68" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="7">
         <v>5</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="C68" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="G68" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
@@ -3833,25 +4372,30 @@
       <c r="AC68" s="7"/>
       <c r="AD68" s="7"/>
       <c r="AE68" s="7"/>
-    </row>
-    <row r="69" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="7">
+      <c r="AF68" s="7"/>
+    </row>
+    <row r="69" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="7">
         <v>5</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="C69" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
@@ -3876,25 +4420,30 @@
       <c r="AC69" s="7"/>
       <c r="AD69" s="7"/>
       <c r="AE69" s="7"/>
-    </row>
-    <row r="70" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="7">
+      <c r="AF69" s="7"/>
+    </row>
+    <row r="70" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" s="7">
         <v>5</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="C70" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
+      <c r="G70" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
@@ -3919,974 +4468,1699 @@
       <c r="AC70" s="7"/>
       <c r="AD70" s="7"/>
       <c r="AE70" s="7"/>
-    </row>
-    <row r="71" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="4">
+      <c r="AF70" s="7"/>
+    </row>
+    <row r="71" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="4">
         <v>5</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="4">
+        <v>5</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="4">
+        <v>5</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="7">
+        <v>5</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="7">
+        <v>5</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="7">
+        <v>5</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="4">
+        <v>5</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" s="4">
+        <v>5</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" s="4">
+        <v>5</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" s="7">
+        <v>5</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="E80" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" s="7">
+        <v>5</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" s="7">
+        <v>5</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E82" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="4">
+      <c r="F82" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B83" s="4">
         <v>5</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="4">
+      <c r="C83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="4">
         <v>5</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="7">
+      <c r="C84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" s="4">
         <v>5</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" s="8" t="s">
+      <c r="C85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="E85" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="7">
+      <c r="F85" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B86" s="7">
         <v>5</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="7">
+      <c r="C86" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" s="7">
         <v>5</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="4">
+      <c r="C87" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B88" s="7">
         <v>5</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D77" s="4" t="s">
+      <c r="C88" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E88" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="4">
-        <v>5</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="4">
-        <v>5</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="7">
-        <v>5</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" s="8" t="s">
+      <c r="F88" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" s="4">
+        <v>6</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" s="4">
+        <v>6</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" s="4">
+        <v>6</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" s="7">
+        <v>6</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" s="7">
+        <v>6</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B94" s="7">
+        <v>6</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" s="4">
+        <v>6</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B96" s="4">
+        <v>6</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B97" s="4">
+        <v>6</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" s="7">
+        <v>6</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" s="7">
+        <v>6</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B100" s="7">
+        <v>6</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B101" s="4">
+        <v>7</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B102" s="4">
+        <v>7</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" s="4">
+        <v>7</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B104" s="7">
+        <v>7</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" s="7">
+        <v>7</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B106" s="7">
+        <v>7</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B107" s="4">
+        <v>7</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="E107" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" s="4">
+        <v>7</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B109" s="4">
+        <v>7</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E80" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="7">
-        <v>5</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="7">
-        <v>5</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="4">
-        <v>5</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D83" s="4" t="s">
+      <c r="F109" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" s="7">
+        <v>7</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B111" s="7">
+        <v>7</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B112" s="7">
+        <v>7</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E112" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="4">
-        <v>5</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="4">
-        <v>5</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="7">
-        <v>5</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D86" s="7" t="s">
+      <c r="F112" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" s="4">
+        <v>7</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B114" s="4">
+        <v>7</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B115" s="4">
+        <v>7</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E115" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E86" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="7">
-        <v>5</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="7">
-        <v>5</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="4">
-        <v>6</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D89" s="4" t="s">
+      <c r="F115" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B116" s="7">
+        <v>7</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B117" s="7">
+        <v>7</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B118" s="7">
+        <v>7</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E118" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="4">
-        <v>6</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="4">
-        <v>6</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="7">
-        <v>6</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D92" s="7" t="s">
+      <c r="F118" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B119" s="4">
+        <v>8</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120" s="4">
+        <v>8</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B121" s="4">
+        <v>8</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E121" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E92" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="7">
-        <v>6</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="7">
-        <v>6</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="4">
-        <v>6</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D95" s="4" t="s">
+      <c r="F121" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B122" s="7">
+        <v>8</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B123" s="7">
+        <v>8</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B124" s="7">
+        <v>8</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E124" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E95" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="4">
-        <v>6</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="4">
-        <v>6</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="7">
-        <v>6</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D98" s="7" t="s">
+      <c r="F124" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B125" s="4">
+        <v>8</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B126" s="4">
+        <v>8</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B127" s="4">
+        <v>8</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E127" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E98" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="7">
-        <v>6</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="7">
-        <v>6</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="4">
-        <v>7</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="4">
-        <v>7</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="4">
-        <v>7</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="7">
-        <v>7</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="7">
-        <v>7</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="7">
-        <v>7</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="4">
-        <v>7</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="4">
-        <v>7</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="4">
-        <v>7</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="7">
-        <v>7</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="7">
-        <v>7</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="7">
-        <v>7</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="4">
-        <v>7</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="4">
-        <v>7</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="4">
-        <v>7</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="7">
-        <v>7</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="7">
-        <v>7</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="7">
-        <v>7</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="4">
-        <v>8</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="4">
-        <v>8</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="4">
-        <v>8</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="7">
-        <v>8</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E122" s="8" t="s">
+      <c r="F127" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="7">
-        <v>8</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="7">
-        <v>8</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="4">
-        <v>8</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="4">
-        <v>8</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="4">
-        <v>8</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>44</v>
+      <c r="G127" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/studies/labor study_A/fragebogen_items_002.xlsx
+++ b/studies/labor study_A/fragebogen_items_002.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1045E093-EABE-4976-B93E-0D65CF89A2C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCED62C-C813-4AC5-A01B-F28E7B2EDA16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{8CF18335-A014-4D58-B979-FFCA93177016}"/>
   </bookViews>
   <sheets>
-    <sheet name="questionnaire_items" sheetId="1" r:id="rId1"/>
+    <sheet name="coding_items" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -648,9 +648,6 @@
     <t>???</t>
   </si>
   <si>
-    <t>form a ratio of fixations by ??? What was that???</t>
-  </si>
-  <si>
     <t>bc_disdetect</t>
   </si>
   <si>
@@ -670,6 +667,9 @@
   </si>
   <si>
     <t>count code by recoding of event code into number of events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean duration of fixation divided by mean number of fixation looking at AOIs </t>
   </si>
 </sst>
 </file>
@@ -1070,29 +1070,29 @@
   <dimension ref="A1:AF155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
+      <selection pane="bottomLeft" activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="3"/>
-    <col min="3" max="3" width="46.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="3"/>
+    <col min="3" max="3" width="46.7265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="26" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="120.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="78.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="10.85546875" style="3"/>
-    <col min="13" max="13" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="17.1796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="120.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="78.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="10.81640625" style="3"/>
+    <col min="13" max="13" width="14.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>147</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>148</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
     </row>
-    <row r="3" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>148</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
     </row>
-    <row r="4" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>148</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
     </row>
-    <row r="5" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>148</v>
       </c>
@@ -1350,7 +1350,7 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
     </row>
-    <row r="6" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>148</v>
       </c>
@@ -1398,7 +1398,7 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
     </row>
-    <row r="7" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>148</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
     </row>
-    <row r="8" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>148</v>
       </c>
@@ -1494,7 +1494,7 @@
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
     </row>
-    <row r="9" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>148</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
     </row>
-    <row r="10" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>148</v>
       </c>
@@ -1590,7 +1590,7 @@
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
     </row>
-    <row r="11" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>148</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
     </row>
-    <row r="12" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>148</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
     </row>
-    <row r="13" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>148</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>148</v>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
     </row>
-    <row r="15" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>148</v>
       </c>
@@ -1830,7 +1830,7 @@
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
     </row>
-    <row r="16" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>148</v>
       </c>
@@ -1878,7 +1878,7 @@
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
     </row>
-    <row r="17" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>148</v>
       </c>
@@ -1926,7 +1926,7 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
     </row>
-    <row r="18" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>148</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
     </row>
-    <row r="19" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>148</v>
       </c>
@@ -2022,7 +2022,7 @@
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
     </row>
-    <row r="20" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>148</v>
       </c>
@@ -2070,7 +2070,7 @@
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
     </row>
-    <row r="21" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>148</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
     </row>
-    <row r="22" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>148</v>
       </c>
@@ -2166,7 +2166,7 @@
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
     </row>
-    <row r="23" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>148</v>
       </c>
@@ -2214,7 +2214,7 @@
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
     </row>
-    <row r="24" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>148</v>
       </c>
@@ -2262,7 +2262,7 @@
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
     </row>
-    <row r="25" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>148</v>
       </c>
@@ -2310,7 +2310,7 @@
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
     </row>
-    <row r="26" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>148</v>
       </c>
@@ -2358,7 +2358,7 @@
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
     </row>
-    <row r="27" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>148</v>
       </c>
@@ -2406,7 +2406,7 @@
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
     </row>
-    <row r="28" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>148</v>
       </c>
@@ -2454,7 +2454,7 @@
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
     </row>
-    <row r="29" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>148</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
     </row>
-    <row r="30" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>148</v>
       </c>
@@ -2550,7 +2550,7 @@
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
     </row>
-    <row r="31" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>148</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
     </row>
-    <row r="32" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>148</v>
       </c>
@@ -2646,7 +2646,7 @@
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
     </row>
-    <row r="33" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>148</v>
       </c>
@@ -2694,7 +2694,7 @@
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
     </row>
-    <row r="34" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>148</v>
       </c>
@@ -2742,7 +2742,7 @@
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
     </row>
-    <row r="35" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>148</v>
       </c>
@@ -2790,7 +2790,7 @@
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
     </row>
-    <row r="36" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>148</v>
       </c>
@@ -2838,7 +2838,7 @@
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
     </row>
-    <row r="37" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>148</v>
       </c>
@@ -2886,7 +2886,7 @@
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
     </row>
-    <row r="38" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>148</v>
       </c>
@@ -2934,7 +2934,7 @@
       <c r="AE38" s="7"/>
       <c r="AF38" s="7"/>
     </row>
-    <row r="39" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>148</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
     </row>
-    <row r="40" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>148</v>
       </c>
@@ -3030,7 +3030,7 @@
       <c r="AE40" s="7"/>
       <c r="AF40" s="7"/>
     </row>
-    <row r="41" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>148</v>
       </c>
@@ -3078,7 +3078,7 @@
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
     </row>
-    <row r="42" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>148</v>
       </c>
@@ -3126,7 +3126,7 @@
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
     </row>
-    <row r="43" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>148</v>
       </c>
@@ -3174,7 +3174,7 @@
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
     </row>
-    <row r="44" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>148</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="AE44" s="7"/>
       <c r="AF44" s="7"/>
     </row>
-    <row r="45" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>148</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="AE45" s="7"/>
       <c r="AF45" s="7"/>
     </row>
-    <row r="46" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>148</v>
       </c>
@@ -3318,7 +3318,7 @@
       <c r="AE46" s="7"/>
       <c r="AF46" s="7"/>
     </row>
-    <row r="47" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>148</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
     </row>
-    <row r="48" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>148</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
     </row>
-    <row r="49" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>148</v>
       </c>
@@ -3462,7 +3462,7 @@
       <c r="AE49" s="4"/>
       <c r="AF49" s="4"/>
     </row>
-    <row r="50" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>148</v>
       </c>
@@ -3510,7 +3510,7 @@
       <c r="AE50" s="7"/>
       <c r="AF50" s="7"/>
     </row>
-    <row r="51" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>148</v>
       </c>
@@ -3558,7 +3558,7 @@
       <c r="AE51" s="7"/>
       <c r="AF51" s="7"/>
     </row>
-    <row r="52" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>148</v>
       </c>
@@ -3606,7 +3606,7 @@
       <c r="AE52" s="7"/>
       <c r="AF52" s="7"/>
     </row>
-    <row r="53" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>148</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="AE53" s="4"/>
       <c r="AF53" s="4"/>
     </row>
-    <row r="54" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>148</v>
       </c>
@@ -3702,7 +3702,7 @@
       <c r="AE54" s="4"/>
       <c r="AF54" s="4"/>
     </row>
-    <row r="55" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>148</v>
       </c>
@@ -3750,7 +3750,7 @@
       <c r="AE55" s="4"/>
       <c r="AF55" s="4"/>
     </row>
-    <row r="56" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>148</v>
       </c>
@@ -3798,7 +3798,7 @@
       <c r="AE56" s="7"/>
       <c r="AF56" s="7"/>
     </row>
-    <row r="57" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>148</v>
       </c>
@@ -3846,7 +3846,7 @@
       <c r="AE57" s="7"/>
       <c r="AF57" s="7"/>
     </row>
-    <row r="58" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>148</v>
       </c>
@@ -3894,7 +3894,7 @@
       <c r="AE58" s="7"/>
       <c r="AF58" s="7"/>
     </row>
-    <row r="59" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>148</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
     </row>
-    <row r="60" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>148</v>
       </c>
@@ -3990,7 +3990,7 @@
       <c r="AE60" s="4"/>
       <c r="AF60" s="4"/>
     </row>
-    <row r="61" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>148</v>
       </c>
@@ -4038,7 +4038,7 @@
       <c r="AE61" s="4"/>
       <c r="AF61" s="4"/>
     </row>
-    <row r="62" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>148</v>
       </c>
@@ -4086,7 +4086,7 @@
       <c r="AE62" s="7"/>
       <c r="AF62" s="7"/>
     </row>
-    <row r="63" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>148</v>
       </c>
@@ -4134,7 +4134,7 @@
       <c r="AE63" s="7"/>
       <c r="AF63" s="7"/>
     </row>
-    <row r="64" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>148</v>
       </c>
@@ -4182,7 +4182,7 @@
       <c r="AE64" s="7"/>
       <c r="AF64" s="7"/>
     </row>
-    <row r="65" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>148</v>
       </c>
@@ -4230,7 +4230,7 @@
       <c r="AE65" s="4"/>
       <c r="AF65" s="4"/>
     </row>
-    <row r="66" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>148</v>
       </c>
@@ -4278,7 +4278,7 @@
       <c r="AE66" s="4"/>
       <c r="AF66" s="4"/>
     </row>
-    <row r="67" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>148</v>
       </c>
@@ -4326,7 +4326,7 @@
       <c r="AE67" s="4"/>
       <c r="AF67" s="4"/>
     </row>
-    <row r="68" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>148</v>
       </c>
@@ -4374,7 +4374,7 @@
       <c r="AE68" s="7"/>
       <c r="AF68" s="7"/>
     </row>
-    <row r="69" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>148</v>
       </c>
@@ -4422,7 +4422,7 @@
       <c r="AE69" s="7"/>
       <c r="AF69" s="7"/>
     </row>
-    <row r="70" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>148</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="AE70" s="7"/>
       <c r="AF70" s="7"/>
     </row>
-    <row r="71" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>148</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>148</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>148</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
         <v>148</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
         <v>148</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>148</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="77" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>148</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="78" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>148</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>148</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
         <v>148</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
         <v>148</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>148</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>148</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>148</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>148</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
         <v>148</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
         <v>148</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
         <v>148</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>148</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>148</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>148</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
         <v>148</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
         <v>148</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
         <v>148</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>148</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>148</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>148</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
         <v>148</v>
       </c>
@@ -5111,10 +5111,10 @@
         <v>30</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
         <v>148</v>
       </c>
@@ -5134,10 +5134,10 @@
         <v>136</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>148</v>
       </c>
@@ -5157,10 +5157,10 @@
         <v>30</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>148</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>148</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>148</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
         <v>148</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
         <v>148</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>148</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>148</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>148</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>148</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
         <v>148</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
         <v>148</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>148</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>148</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>148</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>148</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
         <v>148</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
         <v>148</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
         <v>148</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>148</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>148</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>148</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
         <v>148</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
         <v>148</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="124" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="s">
         <v>148</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>148</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>148</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>148</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>160</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>160</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>160</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>161</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>102</v>
@@ -5841,7 +5841,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>160</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>157</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>102</v>
@@ -5861,7 +5861,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>160</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>199</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>102</v>
@@ -5881,7 +5881,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>160</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>159</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>102</v>
@@ -5901,7 +5901,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>160</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>158</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>102</v>
@@ -5921,7 +5921,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>160</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>160</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>160</v>
       </c>
@@ -5978,10 +5978,10 @@
         <v>195</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>160</v>
       </c>
@@ -5998,10 +5998,10 @@
         <v>196</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>149</v>
       </c>
@@ -6015,10 +6015,10 @@
         <v>102</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>149</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>149</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>149</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>149</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>153</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>153</v>
       </c>
@@ -6102,17 +6102,17 @@
         <v>156</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>184</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>184</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>184</v>
       </c>
